--- a/express/doc/package.xlsx
+++ b/express/doc/package.xlsx
@@ -16,24 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>express</t>
   </si>
   <si>
-    <t>npm install express</t>
+    <t>npm install express --save</t>
   </si>
   <si>
     <t>ioredis</t>
   </si>
   <si>
-    <t>npm install ioredis</t>
+    <t>npm install ioredis --save</t>
   </si>
   <si>
     <t>mongoose</t>
   </si>
   <si>
-    <t>npm install mongoose</t>
+    <t>npm install mongoose --save</t>
   </si>
   <si>
     <t>moment</t>
@@ -42,13 +42,16 @@
     <t>格式化日期时间</t>
   </si>
   <si>
+    <t>npm install moment --save</t>
+  </si>
+  <si>
     <t>express-session</t>
   </si>
   <si>
     <t>存储用户的session</t>
   </si>
   <si>
-    <t>npm install express-session</t>
+    <t>npm install express-session --save</t>
   </si>
   <si>
     <t>connect-redis</t>
@@ -57,7 +60,7 @@
     <t>存储session到redis</t>
   </si>
   <si>
-    <t>npm install connect-redis</t>
+    <t>npm install connect-redis --save</t>
   </si>
   <si>
     <t>https://www.npmjs.com/package/connect-redis</t>
@@ -188,10 +191,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -324,23 +327,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,6 +364,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -373,30 +400,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -409,48 +412,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -469,6 +472,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -481,7 +520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,48 +539,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,10 +655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,115 +667,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,13 +784,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -797,7 +800,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1156,7 +1159,7 @@
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
     <col min="4" max="4" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1184,68 +1187,71 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1277,115 +1283,115 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/express/doc/package.xlsx
+++ b/express/doc/package.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>express</t>
   </si>
@@ -64,6 +64,17 @@
   </si>
   <si>
     <t>https://www.npmjs.com/package/connect-redis</t>
+  </si>
+  <si>
+    <t>gm</t>
+  </si>
+  <si>
+    <t>npm install gm --save</t>
+  </si>
+  <si>
+    <t>要预先安装GraphicMagic
+ftp://ftp.graphicsmagick.org/pub/GraphicsMagick/windows/
+安装完毕，将gm目录加入环境变量</t>
   </si>
   <si>
     <t>validator</t>
@@ -191,10 +202,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -358,36 +369,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -400,145 +543,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,152 +666,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1152,7 +1165,7 @@
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G15" sqref="G13:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1161,6 +1174,7 @@
     <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="30.375" customWidth="1"/>
     <col min="4" max="4" width="42.625" customWidth="1"/>
+    <col min="5" max="5" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -1219,39 +1233,50 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="81" spans="1:5">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1283,115 +1308,115 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/express/doc/package.xlsx
+++ b/express/doc/package.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>express</t>
   </si>
@@ -75,6 +75,21 @@
     <t>要预先安装GraphicMagic
 ftp://ftp.graphicsmagick.org/pub/GraphicsMagick/windows/
 安装完毕，将gm目录加入环境变量</t>
+  </si>
+  <si>
+    <t>mocha</t>
+  </si>
+  <si>
+    <t>自动测试框架</t>
+  </si>
+  <si>
+    <t>最好全局安装，这样可以直接全局运行mocha</t>
+  </si>
+  <si>
+    <t>supertest</t>
+  </si>
+  <si>
+    <t>http测试</t>
   </si>
   <si>
     <t>validator</t>
@@ -202,10 +217,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -226,6 +241,88 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,60 +351,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,37 +367,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,6 +384,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -381,97 +534,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,73 +564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,26 +578,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,6 +608,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -613,6 +628,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,30 +675,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -669,7 +684,7 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,16 +693,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,115 +711,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1160,17 +1175,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G13:G15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="30.375" customWidth="1"/>
     <col min="4" max="4" width="42.625" customWidth="1"/>
@@ -1248,35 +1263,54 @@
         <v>18</v>
       </c>
     </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1292,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -1308,115 +1342,115 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1430,7 +1464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/express/doc/package.xlsx
+++ b/express/doc/package.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ss_vue_express\express\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="1" r:id="rId1"/>
@@ -21,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>express</t>
+  </si>
+  <si>
+    <t>npm install express --save</t>
   </si>
   <si>
     <t>ioredis</t>
@@ -85,6 +83,9 @@
     <t>自动测试框架</t>
   </si>
   <si>
+    <t>npm install mocha -g</t>
+  </si>
+  <si>
     <t>最好全局安装，这样可以直接全局运行mocha</t>
   </si>
   <si>
@@ -94,143 +95,22 @@
     <t>http测试</t>
   </si>
   <si>
-    <t>validator</t>
-  </si>
-  <si>
-    <t>字符检验</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> npm install validator</t>
-  </si>
-  <si>
-    <t>https://github.com/chriso/validator.js</t>
-  </si>
-  <si>
-    <t>只限vue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOMPurify </t>
-  </si>
-  <si>
-    <t>对字符进行XSS过滤</t>
-  </si>
-  <si>
-    <t>npm install dompurify</t>
-  </si>
-  <si>
-    <t>https://github.com/cure53/DOMPurify</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>作用</t>
-  </si>
-  <si>
-    <t>安装</t>
-  </si>
-  <si>
-    <t>实例</t>
-  </si>
-  <si>
-    <t>gulp-htmlmin</t>
-  </si>
-  <si>
-    <t>压缩html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">npm install gulp-htmlmin --save-dev </t>
-  </si>
-  <si>
-    <t>http://blog.csdn.net/zhongguohaoshaonian/article/details/53207254</t>
-  </si>
-  <si>
-    <t>gulp-load-plugins</t>
-  </si>
-  <si>
-    <t>用$代替require，直接引用一个插件</t>
-  </si>
-  <si>
-    <t xml:space="preserve">npm install gulp-load-plugins --save-dev </t>
-  </si>
-  <si>
-    <t>https://juejin.im/entry/55c8dbb160b22a3ebdf34d57</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gulp-uglify</t>
-  </si>
-  <si>
-    <t>压缩js</t>
-  </si>
-  <si>
-    <t>npm install --save-dev gulp-uglify</t>
-  </si>
-  <si>
-    <t>pump</t>
-  </si>
-  <si>
-    <t>捕获pipe中的error并显示</t>
-  </si>
-  <si>
-    <t>npm install --save-dev pump</t>
-  </si>
-  <si>
-    <t>gulp-minify-css</t>
-  </si>
-  <si>
-    <t>压缩css</t>
-  </si>
-  <si>
-    <t>npm install --save-dev gulp-minify-css</t>
-  </si>
-  <si>
-    <t>gulp-concat</t>
-  </si>
-  <si>
-    <t>合并文件</t>
-  </si>
-  <si>
-    <t>npm install --save-dev gulp-concat</t>
-  </si>
-  <si>
-    <t>gulp-babel</t>
-  </si>
-  <si>
-    <t>babel</t>
-  </si>
-  <si>
-    <t>npm install --save-dev gulp-babel</t>
-  </si>
-  <si>
-    <t>gulp-rename</t>
-  </si>
-  <si>
-    <t>重新命名文件</t>
-  </si>
-  <si>
-    <t>npm install --save-dev gulp-rename</t>
-  </si>
-  <si>
-    <t>npm install --save-dev axios</t>
-  </si>
-  <si>
-    <t>npm install mocha -g</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>npm install supertest -g</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>multipart</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>上传文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>npm install multiparty</t>
     </r>
     <r>
@@ -238,28 +118,146 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> --save</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>npm install express --save</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>validator</t>
+  </si>
+  <si>
+    <t>字符检验</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> npm install validator</t>
+  </si>
+  <si>
+    <t>https://github.com/chriso/validator.js</t>
+  </si>
+  <si>
+    <t>只限vue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOMPurify </t>
+  </si>
+  <si>
+    <t>对字符进行XSS过滤</t>
+  </si>
+  <si>
+    <t>npm install dompurify jsdom --save</t>
+  </si>
+  <si>
+    <t>https://github.com/cure53/DOMPurify</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>作用</t>
+  </si>
+  <si>
+    <t>安装</t>
+  </si>
+  <si>
+    <t>实例</t>
+  </si>
+  <si>
+    <t>gulp-htmlmin</t>
+  </si>
+  <si>
+    <t>压缩html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">npm install gulp-htmlmin --save-dev </t>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/zhongguohaoshaonian/article/details/53207254</t>
+  </si>
+  <si>
+    <t>gulp-load-plugins</t>
+  </si>
+  <si>
+    <t>用$代替require，直接引用一个插件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">npm install gulp-load-plugins --save-dev </t>
+  </si>
+  <si>
+    <t>https://juejin.im/entry/55c8dbb160b22a3ebdf34d57</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gulp-uglify</t>
+  </si>
+  <si>
+    <t>压缩js</t>
+  </si>
+  <si>
+    <t>npm install --save-dev gulp-uglify</t>
+  </si>
+  <si>
+    <t>pump</t>
+  </si>
+  <si>
+    <t>捕获pipe中的error并显示</t>
+  </si>
+  <si>
+    <t>npm install --save-dev pump</t>
+  </si>
+  <si>
+    <t>gulp-minify-css</t>
+  </si>
+  <si>
+    <t>压缩css</t>
+  </si>
+  <si>
+    <t>npm install --save-dev gulp-minify-css</t>
+  </si>
+  <si>
+    <t>gulp-concat</t>
+  </si>
+  <si>
+    <t>合并文件</t>
+  </si>
+  <si>
+    <t>npm install --save-dev gulp-concat</t>
+  </si>
+  <si>
+    <t>gulp-babel</t>
+  </si>
+  <si>
+    <t>babel</t>
+  </si>
+  <si>
+    <t>npm install --save-dev gulp-babel</t>
+  </si>
+  <si>
+    <t>gulp-rename</t>
+  </si>
+  <si>
+    <t>重新命名文件</t>
+  </si>
+  <si>
+    <t>npm install --save-dev gulp-rename</t>
+  </si>
+  <si>
+    <t>npm install --save-dev axios</t>
   </si>
   <si>
     <t>GraphicsMagick-1.3.26-Q16-win64-dll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,7 +274,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -285,20 +284,334 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -306,33 +619,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -381,7 +976,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -416,7 +1011,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -619,334 +1214,336 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" customWidth="1"/>
-    <col min="3" max="3" width="30.36328125" customWidth="1"/>
-    <col min="4" max="4" width="42.6328125" customWidth="1"/>
-    <col min="5" max="5" width="24.08984375" customWidth="1"/>
+    <col min="1" max="1" width="17.0916666666667" customWidth="1"/>
+    <col min="2" max="2" width="18.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="30.3666666666667" customWidth="1"/>
+    <col min="4" max="4" width="42.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="24.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="81" spans="1:5">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D17" r:id="rId1"/>
-    <hyperlink ref="D18" r:id="rId2"/>
-    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D17" r:id="rId1" display="https://github.com/chriso/validator.js"/>
+    <hyperlink ref="D18" r:id="rId2" display="https://github.com/cure53/DOMPurify"/>
+    <hyperlink ref="D7" r:id="rId3" display="https://www.npmjs.com/package/connect-redis"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" customWidth="1"/>
-    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="42.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://blog.csdn.net/zhongguohaoshaonian/article/details/53207254"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://juejin.im/entry/55c8dbb160b22a3ebdf34d57"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="38.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>